--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_17-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_17-01.xlsx
@@ -65,6 +65,9 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -104,6 +107,12 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>GROZA 20 TABS.</t>
   </si>
   <si>
@@ -117,9 +126,6 @@
   </si>
   <si>
     <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>INDERAL 10 MG 50 TABS</t>
@@ -989,13 +995,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1007,7 +1013,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1015,17 +1021,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1041,17 +1047,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1067,17 +1073,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>-16</v>
+        <v>120</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1085,7 +1091,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1093,17 +1099,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>52</v>
+        <v>-16</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1125,11 +1131,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1145,17 +1151,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1163,7 +1169,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1171,17 +1177,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1197,13 +1203,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1215,7 +1221,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1223,17 +1229,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1241,7 +1247,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1249,13 +1255,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1267,7 +1273,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1275,7 +1281,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1301,17 +1307,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1319,7 +1325,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1327,13 +1333,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1345,7 +1351,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1353,17 +1359,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1379,17 +1385,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1397,7 +1403,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1411,7 +1417,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1423,7 +1429,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1431,17 +1437,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1463,7 +1469,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1483,17 +1489,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1501,7 +1507,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1509,13 +1515,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1527,7 +1533,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1535,17 +1541,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1553,7 +1559,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1561,13 +1567,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>21.559999999999999</v>
+        <v>130</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1593,7 +1599,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1613,17 +1619,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>53</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1639,17 +1645,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1657,7 +1663,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1665,17 +1671,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1683,7 +1689,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1691,17 +1697,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1709,7 +1715,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1717,17 +1723,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1735,7 +1741,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1743,17 +1749,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1769,17 +1775,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1795,17 +1801,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1813,7 +1819,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1821,17 +1827,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1839,7 +1845,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1847,17 +1853,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1873,17 +1879,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1899,17 +1905,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1931,7 +1937,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>531</v>
+        <v>23</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1951,17 +1957,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>-96</v>
+        <v>41</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1977,13 +1983,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25</v>
+        <v>531</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2003,17 +2009,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>53</v>
+        <v>-96</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2029,17 +2035,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>14.67</v>
+        <v>25</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2047,7 +2053,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2055,17 +2061,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2073,7 +2079,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2081,17 +2087,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>86</v>
+        <v>14.67</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2107,17 +2113,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2133,13 +2139,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2151,7 +2157,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2159,17 +2165,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2177,7 +2183,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2185,13 +2191,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2203,7 +2209,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2217,11 +2223,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2229,7 +2235,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2237,13 +2243,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2263,17 +2269,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>80</v>
+        <v>-4</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2289,51 +2295,103 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="K60" s="10">
-        <v>3104.1300000000001</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="11">
+    <row r="60" ht="25.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>57</v>
+      </c>
+      <c t="s" r="B60" s="7">
         <v>86</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c t="s" r="F61" s="12">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c t="s" r="H60" s="8">
+        <v>80</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9">
+        <v>80</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c t="s" r="N60" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>58</v>
+      </c>
+      <c t="s" r="B61" s="7">
         <v>87</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c t="s" r="I61" s="14">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c t="s" r="H61" s="8">
+        <v>9</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c t="s" r="N61" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" ht="26.25" customHeight="1">
+      <c r="K62" s="10">
+        <v>3215.1300000000001</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="11">
         <v>88</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c t="s" r="F63" s="12">
+        <v>89</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c t="s" r="I63" s="14">
+        <v>90</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="185">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2509,10 +2567,16 @@
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:N63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
